--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3388064.210191936</v>
+        <v>3463593.879856742</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800625</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.6688086659419</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>184.6412977595625</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>88.86192784730129</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.881849679104</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>78.29200324836498</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>54.07069510398941</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>105.0839683962661</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>48.97699675700441</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.0270836661629</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.00149831743107</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>128.8860066847475</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>17.23659818760312</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6778654977374</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>50.59638802950313</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>104.6354350586187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>211.4593910168955</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T28" t="n">
-        <v>121.9303464341707</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>55.22804619697936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>158.7355499516933</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>71.11684848503565</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>78.08687808561321</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.913828367536</v>
+        <v>96.78528632085974</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.8998232290804</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985772</v>
+        <v>87.77311891075352</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.562624396426719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051983</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>173.4405054918811</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.3419076393841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>2036.885894456656</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>2036.885894456656</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2279.43655248959</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2279.43655248959</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.373665146019</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.605009875905</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.605009875905</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.465677900094</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757901</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>961.9755262757901</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>550.9896214861826</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>133.0258133843695</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>133.0258133843695</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1949.568281034341</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>525.0086166875648</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>525.0086166875648</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>525.0086166875648</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>686.9351304176948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481817</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>678.65727031047</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>678.65727031047</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>678.65727031047</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>678.65727031047</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>678.65727031047</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>678.65727031047</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>678.65727031047</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>678.65727031047</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>678.65727031047</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.1285778917498</v>
+        <v>844.0280401273998</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5257,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710877</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>727.7227988731076</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
         <v>265.3924131404652</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1319.443679146046</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1319.443679146046</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1064.759190940159</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W16" t="n">
-        <v>1064.759190940159</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="X16" t="n">
-        <v>836.769640042142</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>909.3712637033474</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,10 +5536,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>557.888878489131</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>407.7722390767952</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>259.8591454944021</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4352.721170395454</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>4183.784987467547</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>4033.668348055211</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>3885.755254472818</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916676</v>
@@ -5920,40 +5922,40 @@
         <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U22" t="n">
-        <v>4755.162214369223</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V22" t="n">
-        <v>4755.162214369223</v>
+        <v>4158.210579681893</v>
       </c>
       <c r="W22" t="n">
-        <v>4755.162214369223</v>
+        <v>3868.793409644933</v>
       </c>
       <c r="X22" t="n">
-        <v>4755.162214369223</v>
+        <v>3640.803858746915</v>
       </c>
       <c r="Y22" t="n">
-        <v>4534.369635225693</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>293.9874647357258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>147.0975172378155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>2969.450898153559</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>3276.77103143352</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>4081.182609697671</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916368</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3796.266898524761</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T28" t="n">
-        <v>4426.697493396548</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U28" t="n">
-        <v>4426.697493396548</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V28" t="n">
-        <v>4426.697493396548</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>4426.697493396548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>4198.707942498531</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3977.915363355001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>303.1196361220957</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C31" t="n">
-        <v>303.1196361220957</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D31" t="n">
-        <v>153.00299670976</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6628,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1338.577331212758</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1114.791916002264</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1114.791916002264</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>1114.791916002264</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="X31" t="n">
-        <v>303.1196361220957</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="Y31" t="n">
-        <v>303.1196361220957</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6737,10 +6739,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>474.7746905116405</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>721.5398184181047</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528.105874218302</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1696912903951</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E34" t="n">
         <v>359.1696912903951</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1227.16105998352</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1227.16105998352</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1227.16105998352</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>937.7438899465591</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X34" t="n">
-        <v>709.7543390485417</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.7543390485417</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>732.169830515405</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705741</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705741</v>
+        <v>751.4342788065935</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705741</v>
+        <v>601.3176393942578</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705741</v>
+        <v>453.4045458118646</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705741</v>
+        <v>306.5145983139543</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903948</v>
+        <v>306.5145983139543</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035282</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247875</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>816.7621830075345</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>816.7621830075345</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705741</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705741</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705741</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,52 +7174,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7330,52 +7332,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909235</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227935</v>
+        <v>1299.18145104826</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169067</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799462</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X40" t="n">
-        <v>102.835903981929</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7439,10 +7441,10 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
         <v>3931.29497012173</v>
@@ -7476,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.404702608941</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L42" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7567,52 +7569,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262962</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765204</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952635</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>325.206642358303</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,7 +7639,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>1387.841167119728</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X46" t="n">
-        <v>1387.841167119728</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992674</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>182.0340742867951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627447</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>297.2466435761023</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>145.2351313103791</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>73.53204524669883</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>20.63789864135373</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669951</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983075</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524669994</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.83048186450623</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>38.36081441388038</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>150.0102229110247</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>43.86969556065182</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>94.82465999342811</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>181.6019173399587</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>40.67825230693248</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>117.1119469436233</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T28" t="n">
-        <v>99.61721462421858</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.20591644958981</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>39.18526003190991</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>150.4307125733536</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>147.622777303424</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>52.12854204667639</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>140.3375291694968</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>198.4642334878238</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.0220289556679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>33.38685156731808</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338358</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>113.0824928447099</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2427457127107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409899</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409908</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.85454099</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26525,43 +26527,43 @@
         <v>469919.6027813141</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813142</v>
+        <v>469919.6027813145</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850633</v>
+        <v>44978.88452850681</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054033</v>
+        <v>570138.9210054029</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054029</v>
+        <v>570138.9210054028</v>
       </c>
       <c r="H6" t="n">
         <v>570138.9210054032</v>
       </c>
       <c r="I6" t="n">
+        <v>570138.9210054032</v>
+      </c>
+      <c r="J6" t="n">
+        <v>393715.70181281</v>
+      </c>
+      <c r="K6" t="n">
         <v>570138.921005403</v>
       </c>
-      <c r="J6" t="n">
-        <v>393715.7018128099</v>
-      </c>
-      <c r="K6" t="n">
-        <v>570138.9210054029</v>
-      </c>
       <c r="L6" t="n">
-        <v>570138.9210054025</v>
+        <v>570138.9210054032</v>
       </c>
       <c r="M6" t="n">
-        <v>435337.9057715663</v>
+        <v>435337.9057715657</v>
       </c>
       <c r="N6" t="n">
         <v>570138.9210054027</v>
       </c>
       <c r="O6" t="n">
-        <v>570138.9210054032</v>
+        <v>570138.9210054029</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054032</v>
+        <v>570138.9210054027</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.01423295474103</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>31.80702259809527</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>67.30896099449386</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.80115265030469</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>167.8519919843766</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>73.63931299649627</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>11.05637510633818</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>92.25479057581495</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>311.2021966670181</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>264.647132282203</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>97.68819522315344</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>92.49591467042811</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.86925952942726e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328948</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>492.4584513372614</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277215</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>630.4412169741153</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>352.3285462419038</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>322.7897502027232</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>227.7313135728785</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346388</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>213.37009787777</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346392</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3463593.879856742</v>
+        <v>3456576.86496503</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800625</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8273369.879420795</v>
+        <v>8273369.879420796</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>284.6688086659419</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>20.68191823786721</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.881849679104</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8.389005322401673</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.0270836661628</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>105.397534788448</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>105.0839683962661</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>48.97699675700441</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>128.8860066847475</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>189.9983499088376</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>17.23659818760312</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.7794577366496</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.59638802950313</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V22" t="n">
-        <v>211.4593910168955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.6519788371605</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>158.7355499516933</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>78.08687808561321</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>96.78528632085974</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>132.9222801333269</v>
       </c>
       <c r="U40" t="n">
-        <v>87.77311891075352</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051983</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>173.4405054918811</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.885894456656</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C2" t="n">
-        <v>2036.885894456656</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1359.246564992226</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>973.4583123939813</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1949.568281034341</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.974978926224</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.974978926224</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7210873825632</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5035,13 +5035,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.0280401273998</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>713.8401545872508</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333287</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273998</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273998</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273998</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y13" t="n">
-        <v>844.0280401273998</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5284,22 +5284,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.7227988731076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033474</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>909.3712637033474</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
-        <v>909.3712637033474</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.3712637033474</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>407.7722390767952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>259.8591454944021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143404</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V22" t="n">
-        <v>4158.210579681893</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W22" t="n">
-        <v>3868.793409644933</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X22" t="n">
-        <v>3640.803858746915</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5995,22 +5995,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1908.095276920733</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>862.1113288466635</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1338.577331212758</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1114.791916002264</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.791916002264</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1114.791916002264</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>825.3747459653033</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>474.7746905116405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>721.5398184181047</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1028.859951698066</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>754.8946022306075</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>751.4342788065935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>601.3176393942578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>453.4045458118646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>306.5145983139543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>306.5145983139543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617345004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,10 +7350,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
@@ -7362,22 +7362,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1253.576237692125</v>
       </c>
       <c r="U40" t="n">
-        <v>1299.18145104826</v>
+        <v>964.447598905683</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.496962842373</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W40" t="n">
-        <v>1044.496962842373</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X40" t="n">
-        <v>816.5074119443558</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7148328008257</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7441,10 +7441,10 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.29497012173</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>245.130185042679</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>297.2466435761023</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>145.2351313103791</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>20.63789864135373</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524669951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>62.79465928983075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>38.36081441388038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>35.7113054801996</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>150.0102229110247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154452</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>94.82465999342811</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V22" t="n">
-        <v>40.67825230693248</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709092</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>75.26883114644278</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>39.18526003190991</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>147.622777303424</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12854204667639</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>88.62528092506233</v>
       </c>
       <c r="U40" t="n">
-        <v>198.4642334878238</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>33.38685156731808</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.0824928447099</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>469919.6027813141</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813145</v>
+        <v>469919.602781314</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850681</v>
+        <v>44004.29326878522</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054028</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.329745681</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.70181281</v>
+        <v>392741.1105530884</v>
       </c>
       <c r="K6" t="n">
-        <v>570138.921005403</v>
+        <v>569164.3297456811</v>
       </c>
       <c r="L6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="M6" t="n">
-        <v>435337.9057715657</v>
+        <v>434363.3145118442</v>
       </c>
       <c r="N6" t="n">
-        <v>570138.9210054027</v>
+        <v>569164.3297456811</v>
       </c>
       <c r="O6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.3297456815</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054027</v>
+        <v>569164.3297456815</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>70.01423295474103</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>386.1941275038442</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.80115265030469</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>167.8519919843766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>158.8578157762262</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>92.25479057581495</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>111.0507855692098</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>264.647132282203</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>97.68819522315344</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.86925952942726e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>630.4412169741153</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>352.3285462419038</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>227.7313135728785</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346388</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>213.37009787777</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3456576.86496503</v>
+        <v>3461516.127814063</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>20.68191823786721</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>4.669905662784863</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.389005322401673</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>83.82466560786631</v>
       </c>
     </row>
     <row r="8">
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>117.8433298145731</v>
       </c>
       <c r="T8" t="n">
-        <v>105.397534788448</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586862</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>28.07505500213033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>189.9983499088376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>241.7591381458071</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.7794577366496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>238.2336684417116</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498025</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>118.4898845065121</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274131</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>132.9222801333269</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.3220157029464</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1359.246564992226</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>973.4583123939813</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4612,7 +4612,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629043</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,16 +4822,16 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2578.115424538855</v>
       </c>
       <c r="T8" t="n">
         <v>2359.480757510918</v>
@@ -4849,7 +4849,7 @@
         <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,19 +5035,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,13 +5129,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>591.7807875514874</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>441.6641481391516</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>293.7510545567585</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>293.7510545567585</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>125.5757328765791</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>125.5757328765791</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>817.9500965265709</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.1575173830407</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1254.715120915673</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>1000.030632709786</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6003821033663</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5518,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1258.27620142486</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1003.591713218973</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820127</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,64 +6451,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6937,37 +6937,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,22 +7113,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
         <v>614.6238123952637</v>
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1253.576237692125</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>964.447598905683</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>964.447598905683</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>295.0106108202091</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>126.8352891400297</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7845,7 +7845,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>180.0237016735862</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>82.34419046214165</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>35.7113054801996</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.47821425277021</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.8051956154452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.00368395686573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641916</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="35">
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>88.62528092506233</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>119.5918126645897</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.85454099</v>
-      </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409901</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.746584734456174e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26438,25 +26438,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-120048.2764332305</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813145</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.602781314</v>
+        <v>469919.6027813143</v>
       </c>
       <c r="E6" t="n">
-        <v>44004.29326878522</v>
+        <v>44881.42540253463</v>
       </c>
       <c r="F6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="G6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.461879431</v>
       </c>
       <c r="H6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="I6" t="n">
-        <v>569164.329745681</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="J6" t="n">
-        <v>392741.1105530884</v>
+        <v>393618.242686838</v>
       </c>
       <c r="K6" t="n">
-        <v>569164.3297456811</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="L6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="M6" t="n">
-        <v>434363.3145118442</v>
+        <v>435240.4466455936</v>
       </c>
       <c r="N6" t="n">
-        <v>569164.3297456811</v>
+        <v>570041.4618794313</v>
       </c>
       <c r="O6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="P6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794309</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.933230918070218e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.933230918070218e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26764,19 +26764,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.933230918070218e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>386.1941275038442</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>211.7784146948729</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>104.7780420844848</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>74.74425144011366</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>158.8578157762262</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>134.7599877442285</v>
       </c>
     </row>
     <row r="8">
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>56.57238299439848</v>
       </c>
       <c r="T8" t="n">
-        <v>111.0507855692098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,13 +28092,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-5.933230918070218e-14</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-5.933230918070218e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.933230918070218e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-5.933230918070218e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296107</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
